--- a/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
@@ -67,9 +67,6 @@
     <t>Código area</t>
   </si>
   <si>
-    <t>Código ciudad</t>
-  </si>
-  <si>
     <t>Telefono</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
     <t>Titulo analitica</t>
   </si>
   <si>
@@ -131,6 +125,12 @@
   </si>
   <si>
     <t>Servicio</t>
+  </si>
+  <si>
+    <t>Código pais</t>
+  </si>
+  <si>
+    <t>Porcentaje Asignación</t>
   </si>
 </sst>
 </file>
@@ -146,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,8 +172,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AM500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,18 +493,18 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="23.21875" customWidth="1"/>
     <col min="14" max="14" width="18.5546875" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" customWidth="1"/>
     <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.77734375" bestFit="1" customWidth="1"/>
@@ -512,130 +520,2519 @@
     <col min="32" max="32" width="15.44140625" customWidth="1"/>
     <col min="33" max="33" width="22" customWidth="1"/>
     <col min="34" max="34" width="17" customWidth="1"/>
-    <col min="36" max="36" width="11.77734375" customWidth="1"/>
-    <col min="37" max="37" width="18.88671875" customWidth="1"/>
-    <col min="38" max="38" width="28.44140625" customWidth="1"/>
-    <col min="39" max="39" width="27.21875" customWidth="1"/>
+    <col min="36" max="36" width="20.109375" customWidth="1"/>
+    <col min="37" max="37" width="19.88671875" customWidth="1"/>
+    <col min="38" max="38" width="31.77734375" customWidth="1"/>
+    <col min="39" max="39" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="K287" s="1"/>
+    </row>
+    <row r="288" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="K288" s="1"/>
+    </row>
+    <row r="289" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="291" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="K291" s="1"/>
+    </row>
+    <row r="292" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="K293" s="1"/>
+    </row>
+    <row r="294" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="K294" s="1"/>
+    </row>
+    <row r="295" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="K298" s="1"/>
+    </row>
+    <row r="299" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="K299" s="1"/>
+    </row>
+    <row r="300" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="K300" s="1"/>
+    </row>
+    <row r="301" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="K301" s="1"/>
+    </row>
+    <row r="302" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="K302" s="1"/>
+    </row>
+    <row r="303" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="K303" s="1"/>
+    </row>
+    <row r="304" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="K304" s="1"/>
+    </row>
+    <row r="305" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="K305" s="1"/>
+    </row>
+    <row r="306" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="K306" s="1"/>
+    </row>
+    <row r="307" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="K307" s="1"/>
+    </row>
+    <row r="308" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="K308" s="1"/>
+    </row>
+    <row r="309" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="K309" s="1"/>
+    </row>
+    <row r="310" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="K310" s="1"/>
+    </row>
+    <row r="311" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="K311" s="1"/>
+    </row>
+    <row r="312" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="K312" s="1"/>
+    </row>
+    <row r="313" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="K313" s="1"/>
+    </row>
+    <row r="314" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="315" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="K315" s="1"/>
+    </row>
+    <row r="316" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="K316" s="1"/>
+    </row>
+    <row r="317" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="K317" s="1"/>
+    </row>
+    <row r="318" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="K318" s="1"/>
+    </row>
+    <row r="319" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="K319" s="1"/>
+    </row>
+    <row r="320" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="K320" s="1"/>
+    </row>
+    <row r="321" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="K321" s="1"/>
+    </row>
+    <row r="322" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="K322" s="1"/>
+    </row>
+    <row r="323" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="K323" s="1"/>
+    </row>
+    <row r="324" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="K324" s="1"/>
+    </row>
+    <row r="325" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="K325" s="1"/>
+    </row>
+    <row r="326" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="K326" s="1"/>
+    </row>
+    <row r="327" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="K327" s="1"/>
+    </row>
+    <row r="328" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="K328" s="1"/>
+    </row>
+    <row r="329" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="K329" s="1"/>
+    </row>
+    <row r="330" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="K330" s="1"/>
+    </row>
+    <row r="331" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="K331" s="1"/>
+    </row>
+    <row r="332" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="K332" s="1"/>
+    </row>
+    <row r="333" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="K333" s="1"/>
+    </row>
+    <row r="334" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="K334" s="1"/>
+    </row>
+    <row r="335" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="K335" s="1"/>
+    </row>
+    <row r="336" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="K336" s="1"/>
+    </row>
+    <row r="337" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="338" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="K338" s="1"/>
+    </row>
+    <row r="339" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="K339" s="1"/>
+    </row>
+    <row r="340" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="K340" s="1"/>
+    </row>
+    <row r="341" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="K341" s="1"/>
+    </row>
+    <row r="342" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="K342" s="1"/>
+    </row>
+    <row r="343" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="K343" s="1"/>
+    </row>
+    <row r="344" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="K344" s="1"/>
+    </row>
+    <row r="345" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="K345" s="1"/>
+    </row>
+    <row r="346" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="K346" s="1"/>
+    </row>
+    <row r="347" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="K347" s="1"/>
+    </row>
+    <row r="348" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="K348" s="1"/>
+    </row>
+    <row r="349" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="K349" s="1"/>
+    </row>
+    <row r="350" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="K350" s="1"/>
+    </row>
+    <row r="351" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="K351" s="1"/>
+    </row>
+    <row r="352" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="K352" s="1"/>
+    </row>
+    <row r="353" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="K353" s="1"/>
+    </row>
+    <row r="354" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="K354" s="1"/>
+    </row>
+    <row r="355" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F355" s="1"/>
+      <c r="G355" s="1"/>
+      <c r="K355" s="1"/>
+    </row>
+    <row r="356" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F356" s="1"/>
+      <c r="G356" s="1"/>
+      <c r="K356" s="1"/>
+    </row>
+    <row r="357" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="K357" s="1"/>
+    </row>
+    <row r="358" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
+      <c r="K358" s="1"/>
+    </row>
+    <row r="359" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="K359" s="1"/>
+    </row>
+    <row r="360" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="K360" s="1"/>
+    </row>
+    <row r="361" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="K361" s="1"/>
+    </row>
+    <row r="362" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="K362" s="1"/>
+    </row>
+    <row r="363" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="K363" s="1"/>
+    </row>
+    <row r="364" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="K364" s="1"/>
+    </row>
+    <row r="365" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="K365" s="1"/>
+    </row>
+    <row r="366" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F366" s="1"/>
+      <c r="G366" s="1"/>
+      <c r="K366" s="1"/>
+    </row>
+    <row r="367" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="K367" s="1"/>
+    </row>
+    <row r="368" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="K368" s="1"/>
+    </row>
+    <row r="369" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+      <c r="K369" s="1"/>
+    </row>
+    <row r="370" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F370" s="1"/>
+      <c r="G370" s="1"/>
+      <c r="K370" s="1"/>
+    </row>
+    <row r="371" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F371" s="1"/>
+      <c r="G371" s="1"/>
+      <c r="K371" s="1"/>
+    </row>
+    <row r="372" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="K372" s="1"/>
+    </row>
+    <row r="373" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="K373" s="1"/>
+    </row>
+    <row r="374" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="K374" s="1"/>
+    </row>
+    <row r="375" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="K375" s="1"/>
+    </row>
+    <row r="376" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="K376" s="1"/>
+    </row>
+    <row r="377" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="K377" s="1"/>
+    </row>
+    <row r="378" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="K378" s="1"/>
+    </row>
+    <row r="379" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="K379" s="1"/>
+    </row>
+    <row r="380" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="K380" s="1"/>
+    </row>
+    <row r="381" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="K381" s="1"/>
+    </row>
+    <row r="382" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="K382" s="1"/>
+    </row>
+    <row r="383" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="K383" s="1"/>
+    </row>
+    <row r="384" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="K384" s="1"/>
+    </row>
+    <row r="385" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="K385" s="1"/>
+    </row>
+    <row r="386" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="K386" s="1"/>
+    </row>
+    <row r="387" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="K387" s="1"/>
+    </row>
+    <row r="388" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="K388" s="1"/>
+    </row>
+    <row r="389" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="K389" s="1"/>
+    </row>
+    <row r="390" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F390" s="1"/>
+      <c r="G390" s="1"/>
+      <c r="K390" s="1"/>
+    </row>
+    <row r="391" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="K391" s="1"/>
+    </row>
+    <row r="392" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="K392" s="1"/>
+    </row>
+    <row r="393" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="K393" s="1"/>
+    </row>
+    <row r="394" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+      <c r="K394" s="1"/>
+    </row>
+    <row r="395" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+      <c r="K395" s="1"/>
+    </row>
+    <row r="396" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+      <c r="K396" s="1"/>
+    </row>
+    <row r="397" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="K397" s="1"/>
+    </row>
+    <row r="398" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+      <c r="K398" s="1"/>
+    </row>
+    <row r="399" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="K399" s="1"/>
+    </row>
+    <row r="400" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="K400" s="1"/>
+    </row>
+    <row r="401" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="K401" s="1"/>
+    </row>
+    <row r="402" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="K402" s="1"/>
+    </row>
+    <row r="403" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="K403" s="1"/>
+    </row>
+    <row r="404" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+      <c r="K404" s="1"/>
+    </row>
+    <row r="405" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="K405" s="1"/>
+    </row>
+    <row r="406" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="K406" s="1"/>
+    </row>
+    <row r="407" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="K407" s="1"/>
+    </row>
+    <row r="408" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="K408" s="1"/>
+    </row>
+    <row r="409" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="K409" s="1"/>
+    </row>
+    <row r="410" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="K410" s="1"/>
+    </row>
+    <row r="411" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="K411" s="1"/>
+    </row>
+    <row r="412" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="K412" s="1"/>
+    </row>
+    <row r="413" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="K413" s="1"/>
+    </row>
+    <row r="414" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="K414" s="1"/>
+    </row>
+    <row r="415" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="K415" s="1"/>
+    </row>
+    <row r="416" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="K416" s="1"/>
+    </row>
+    <row r="417" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="K417" s="1"/>
+    </row>
+    <row r="418" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="K418" s="1"/>
+    </row>
+    <row r="419" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="K419" s="1"/>
+    </row>
+    <row r="420" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="K420" s="1"/>
+    </row>
+    <row r="421" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F421" s="1"/>
+      <c r="G421" s="1"/>
+      <c r="K421" s="1"/>
+    </row>
+    <row r="422" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F422" s="1"/>
+      <c r="G422" s="1"/>
+      <c r="K422" s="1"/>
+    </row>
+    <row r="423" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F423" s="1"/>
+      <c r="G423" s="1"/>
+      <c r="K423" s="1"/>
+    </row>
+    <row r="424" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F424" s="1"/>
+      <c r="G424" s="1"/>
+      <c r="K424" s="1"/>
+    </row>
+    <row r="425" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F425" s="1"/>
+      <c r="G425" s="1"/>
+      <c r="K425" s="1"/>
+    </row>
+    <row r="426" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F426" s="1"/>
+      <c r="G426" s="1"/>
+      <c r="K426" s="1"/>
+    </row>
+    <row r="427" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F427" s="1"/>
+      <c r="G427" s="1"/>
+      <c r="K427" s="1"/>
+    </row>
+    <row r="428" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F428" s="1"/>
+      <c r="G428" s="1"/>
+      <c r="K428" s="1"/>
+    </row>
+    <row r="429" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F429" s="1"/>
+      <c r="G429" s="1"/>
+      <c r="K429" s="1"/>
+    </row>
+    <row r="430" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+      <c r="K430" s="1"/>
+    </row>
+    <row r="431" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+      <c r="K431" s="1"/>
+    </row>
+    <row r="432" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F432" s="1"/>
+      <c r="G432" s="1"/>
+      <c r="K432" s="1"/>
+    </row>
+    <row r="433" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F433" s="1"/>
+      <c r="G433" s="1"/>
+      <c r="K433" s="1"/>
+    </row>
+    <row r="434" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F434" s="1"/>
+      <c r="G434" s="1"/>
+      <c r="K434" s="1"/>
+    </row>
+    <row r="435" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F435" s="1"/>
+      <c r="G435" s="1"/>
+      <c r="K435" s="1"/>
+    </row>
+    <row r="436" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F436" s="1"/>
+      <c r="G436" s="1"/>
+      <c r="K436" s="1"/>
+    </row>
+    <row r="437" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F437" s="1"/>
+      <c r="G437" s="1"/>
+      <c r="K437" s="1"/>
+    </row>
+    <row r="438" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+      <c r="K438" s="1"/>
+    </row>
+    <row r="439" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F439" s="1"/>
+      <c r="G439" s="1"/>
+      <c r="K439" s="1"/>
+    </row>
+    <row r="440" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F440" s="1"/>
+      <c r="G440" s="1"/>
+      <c r="K440" s="1"/>
+    </row>
+    <row r="441" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F441" s="1"/>
+      <c r="G441" s="1"/>
+      <c r="K441" s="1"/>
+    </row>
+    <row r="442" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F442" s="1"/>
+      <c r="G442" s="1"/>
+      <c r="K442" s="1"/>
+    </row>
+    <row r="443" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+      <c r="K443" s="1"/>
+    </row>
+    <row r="444" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F444" s="1"/>
+      <c r="G444" s="1"/>
+      <c r="K444" s="1"/>
+    </row>
+    <row r="445" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+      <c r="K445" s="1"/>
+    </row>
+    <row r="446" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+      <c r="K446" s="1"/>
+    </row>
+    <row r="447" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+      <c r="K447" s="1"/>
+    </row>
+    <row r="448" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="K448" s="1"/>
+    </row>
+    <row r="449" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K449" s="1"/>
+    </row>
+    <row r="450" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K450" s="1"/>
+    </row>
+    <row r="451" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K451" s="1"/>
+    </row>
+    <row r="452" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K452" s="1"/>
+    </row>
+    <row r="453" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K453" s="1"/>
+    </row>
+    <row r="454" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K454" s="1"/>
+    </row>
+    <row r="455" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K455" s="1"/>
+    </row>
+    <row r="456" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K456" s="1"/>
+    </row>
+    <row r="457" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K457" s="1"/>
+    </row>
+    <row r="458" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K458" s="1"/>
+    </row>
+    <row r="459" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K459" s="1"/>
+    </row>
+    <row r="460" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K460" s="1"/>
+    </row>
+    <row r="461" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K461" s="1"/>
+    </row>
+    <row r="462" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K462" s="1"/>
+    </row>
+    <row r="463" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K463" s="1"/>
+    </row>
+    <row r="464" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K464" s="1"/>
+    </row>
+    <row r="465" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K465" s="1"/>
+    </row>
+    <row r="466" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K466" s="1"/>
+    </row>
+    <row r="467" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K467" s="1"/>
+    </row>
+    <row r="468" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K468" s="1"/>
+    </row>
+    <row r="469" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K469" s="1"/>
+    </row>
+    <row r="470" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K470" s="1"/>
+    </row>
+    <row r="471" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K471" s="1"/>
+    </row>
+    <row r="472" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K472" s="1"/>
+    </row>
+    <row r="473" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K473" s="1"/>
+    </row>
+    <row r="474" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K474" s="1"/>
+    </row>
+    <row r="475" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K475" s="1"/>
+    </row>
+    <row r="476" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K476" s="1"/>
+    </row>
+    <row r="477" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K477" s="1"/>
+    </row>
+    <row r="478" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K478" s="1"/>
+    </row>
+    <row r="479" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K479" s="1"/>
+    </row>
+    <row r="480" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K480" s="1"/>
+    </row>
+    <row r="481" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K481" s="1"/>
+    </row>
+    <row r="482" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K482" s="1"/>
+    </row>
+    <row r="483" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K483" s="1"/>
+    </row>
+    <row r="484" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K484" s="1"/>
+    </row>
+    <row r="485" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K485" s="1"/>
+    </row>
+    <row r="486" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K486" s="1"/>
+    </row>
+    <row r="487" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K487" s="1"/>
+    </row>
+    <row r="488" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K488" s="1"/>
+    </row>
+    <row r="489" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K489" s="1"/>
+    </row>
+    <row r="490" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K490" s="1"/>
+    </row>
+    <row r="491" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K491" s="1"/>
+    </row>
+    <row r="492" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K492" s="1"/>
+    </row>
+    <row r="493" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K493" s="1"/>
+    </row>
+    <row r="494" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K494" s="1"/>
+    </row>
+    <row r="495" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K495" s="1"/>
+    </row>
+    <row r="496" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K496" s="1"/>
+    </row>
+    <row r="497" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K497" s="1"/>
+    </row>
+    <row r="498" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K498" s="1"/>
+    </row>
+    <row r="499" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K499" s="1"/>
+    </row>
+    <row r="500" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K500" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Legajo</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Porcentaje Asignación</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3902"/>
+  <dimension ref="A1:AN3902"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +528,10 @@
     <col min="37" max="37" width="19.85546875" customWidth="1"/>
     <col min="38" max="38" width="31.7109375" customWidth="1"/>
     <col min="39" max="39" width="29.5703125" customWidth="1"/>
+    <col min="40" max="40" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,92 +649,95 @@
       <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/reporte-empleados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Legajo</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Tipo de Servicio</t>
+  </si>
+  <si>
+    <t>Tipo de Solución</t>
+  </si>
+  <si>
+    <t>Tipo de Tecnología</t>
+  </si>
+  <si>
+    <t>Ley de Software</t>
+  </si>
+  <si>
+    <t>Código Actividad</t>
+  </si>
+  <si>
+    <t>Actividad</t>
   </si>
 </sst>
 </file>
@@ -484,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN3902"/>
+  <dimension ref="A1:AT3902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +547,15 @@
     <col min="38" max="38" width="31.7109375" customWidth="1"/>
     <col min="39" max="39" width="29.5703125" customWidth="1"/>
     <col min="40" max="40" width="35.28515625" customWidth="1"/>
+    <col min="41" max="41" width="30.28515625" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" customWidth="1"/>
+    <col min="43" max="43" width="30.42578125" customWidth="1"/>
+    <col min="44" max="44" width="24" customWidth="1"/>
+    <col min="45" max="45" width="21.140625" customWidth="1"/>
+    <col min="46" max="46" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,92 +676,110 @@
       <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
